--- a/tests/test-files/sample.xlsx
+++ b/tests/test-files/sample.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrejkrylov/Desktop/BankAnalyticsProject/backend/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrejkrylov/Desktop/BankAnalyticsProject/backend/tests/test-files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{503E94D9-2853-F84F-BC91-E8A1DD3DCFAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{957830E0-45AC-F849-BF77-97F7ABBA4820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16520" xr2:uid="{430FBC88-344E-FC4E-9BEE-AED1E4309F72}"/>
+    <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16460" xr2:uid="{430FBC88-344E-FC4E-9BEE-AED1E4309F72}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Выручка</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>Прибыль</t>
+  </si>
+  <si>
+    <t>Полипласт</t>
   </si>
 </sst>
 </file>
@@ -420,13 +423,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5857AE50-40CF-F840-A385-D0258CAC8280}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
       <c r="B1" s="1">
         <v>45291</v>
       </c>
